--- a/EJ4/calculo_ganancia.xlsx
+++ b/EJ4/calculo_ganancia.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaco\Desktop\repos\TC\TP3\EJ4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D3975E-DE6A-4B35-AA66-76896CB1B946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F919605-2D03-48C2-A8A3-519F17F96887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96CE2554-F54B-432E-AADA-E14654DB6005}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{96CE2554-F54B-432E-AADA-E14654DB6005}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="mal" sheetId="1" r:id="rId1"/>
+    <sheet name="OK" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>R1</t>
   </si>
@@ -94,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -156,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -198,6 +199,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218D29DC-08EE-4F9C-A5E9-B6014B73F1AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="533401" y="2461260"/>
+          <a:ext cx="2948126" cy="1821180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311607</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E0EFAA-DF12-4256-AF7A-B95B8E766B16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -542,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDED26D1-51B7-4DFA-9EBB-3F5F1E6C04FB}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,4 +734,281 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83926E81-F56B-40DA-9FC0-031BB6A7F14E}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5">
+        <v>132</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>68000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>82000</v>
+      </c>
+      <c r="C2" s="3">
+        <f>2*B2/(($L$1-1)-(B2/A2))</f>
+        <v>1263.5395422615002</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="4">
+        <f>1+(B2/A2)+2*(B2/(D2+E2))</f>
+        <v>29.53921568627451</v>
+      </c>
+      <c r="G2" s="4">
+        <f>1+(B2/A2)+2*(B2/(E2))</f>
+        <v>166.20588235294119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>150000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>150000</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C12" si="0">2*B3/(($L$1-1)-(B3/A3))</f>
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F12" si="1">1+(B3/A3)+2*(B3/(D3+E3))</f>
+        <v>52</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G12" si="2">1+(B3/A3)+2*(B3/(E3))</f>
+        <v>302</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1538.4615384615386</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>120000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>120000</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>1846.1538461538462</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/EJ4/calculo_ganancia.xlsx
+++ b/EJ4/calculo_ganancia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaco\Desktop\repos\TC\TP3\EJ4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F919605-2D03-48C2-A8A3-519F17F96887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D796DA68-DE07-4B7F-96E6-AEFCC46EA9E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{96CE2554-F54B-432E-AADA-E14654DB6005}"/>
+    <workbookView xWindow="14184" yWindow="5328" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{96CE2554-F54B-432E-AADA-E14654DB6005}"/>
   </bookViews>
   <sheets>
     <sheet name="mal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>R1</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>SMD</t>
+  </si>
+  <si>
+    <t>68k</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,11 +882,13 @@
         <f t="shared" si="0"/>
         <v>1846.1538461538462</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G5" s="4" t="e">
         <f t="shared" si="2"/>

--- a/EJ4/calculo_ganancia.xlsx
+++ b/EJ4/calculo_ganancia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaco\Desktop\repos\TC\TP3\EJ4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D796DA68-DE07-4B7F-96E6-AEFCC46EA9E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB55FB4A-8B6A-415B-9776-C53966A35F33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14184" yWindow="5328" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{96CE2554-F54B-432E-AADA-E14654DB6005}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{96CE2554-F54B-432E-AADA-E14654DB6005}"/>
   </bookViews>
   <sheets>
     <sheet name="mal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>R1</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>SMD</t>
-  </si>
-  <si>
-    <t>68k</t>
   </si>
 </sst>
 </file>
@@ -873,26 +870,28 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="B5" s="3">
-        <v>120000</v>
+        <v>1200</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>1846.1538461538462</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="e">
+        <v>18.321729571271529</v>
+      </c>
+      <c r="D5" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" s="4" t="e">
+        <v>1.0166642599277977</v>
+      </c>
+      <c r="G5" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0968888888888888</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>7</v>
